--- a/src/main/resources/com/cauh/iso/xdocreport/SOP_Training_Deviation_Log_01.xlsx
+++ b/src/main/resources/com/cauh/iso/xdocreport/SOP_Training_Deviation_Log_01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Safesoft 자료\2021\ISO_MS\중앙대학교병원 시스템 적용 RFs\TEMPLATE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SafeSoft\IdeaProjects\SOP\iso-ms\src\main\resources\com\cauh\iso\xdocreport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E82058AD-3AE2-4321-B539-892EF3DAC7ED}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4993AF4F-7EFD-4056-B5F4-28C374148A8C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="660" yWindow="660" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SOP TR Deviation Log" sheetId="1" r:id="rId1"/>
@@ -660,6 +660,69 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="9" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="9" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -679,69 +742,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="9" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="9" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1033,78 +1033,78 @@
   <dimension ref="A1:R20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScale="80" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:D5"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="5" style="2" customWidth="1"/>
     <col min="2" max="2" width="20.5" style="3" customWidth="1"/>
     <col min="3" max="3" width="12" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24.19921875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="7.69921875" style="1" customWidth="1"/>
-    <col min="6" max="7" width="14.09765625" style="1" customWidth="1"/>
-    <col min="8" max="9" width="11.8984375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.3984375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="12.69921875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="7.75" style="1" customWidth="1"/>
+    <col min="6" max="7" width="14.125" style="1" customWidth="1"/>
+    <col min="8" max="9" width="11.875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.75" style="1" customWidth="1"/>
     <col min="12" max="12" width="17" style="1" customWidth="1"/>
-    <col min="13" max="13" width="23.69921875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="11.59765625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="18.3984375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="11.19921875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="23.75" style="1" customWidth="1"/>
+    <col min="14" max="14" width="11.625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="18.375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="11.25" style="1" customWidth="1"/>
     <col min="17" max="17" width="10.5" style="1" customWidth="1"/>
     <col min="18" max="18" width="12.5" style="1" customWidth="1"/>
-    <col min="19" max="16384" width="8.69921875" style="1"/>
+    <col min="19" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="18" thickBot="1"/>
+    <row r="1" spans="1:18" ht="17.25" thickBot="1"/>
     <row r="2" spans="1:18" s="4" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="14" t="s">
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="14"/>
-      <c r="J2" s="24" t="s">
+      <c r="I2" s="35"/>
+      <c r="J2" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="25"/>
-      <c r="L2" s="29" t="s">
+      <c r="K2" s="26"/>
+      <c r="L2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="M2" s="19" t="s">
+      <c r="M2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="N2" s="26" t="s">
+      <c r="N2" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="19" t="s">
+      <c r="O2" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="P2" s="26" t="s">
+      <c r="P2" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="Q2" s="20" t="s">
+      <c r="Q2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="R2" s="22" t="s">
+      <c r="R2" s="23" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:18" s="4" customFormat="1" ht="38.25" customHeight="1" thickBot="1">
-      <c r="A3" s="13"/>
-      <c r="B3" s="15"/>
+      <c r="A3" s="34"/>
+      <c r="B3" s="36"/>
       <c r="C3" s="5" t="s">
         <v>9</v>
       </c>
@@ -1132,74 +1132,77 @@
       <c r="K3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="30"/>
-      <c r="M3" s="28"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="28"/>
-      <c r="P3" s="27"/>
-      <c r="Q3" s="21"/>
-      <c r="R3" s="23"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="28"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="24"/>
     </row>
-    <row r="4" spans="1:18" ht="84.9" customHeight="1">
-      <c r="A4" s="31" t="s">
+    <row r="4" spans="1:18" ht="84.95" customHeight="1">
+      <c r="A4" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="33" t="s">
+      <c r="D4" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="34" t="s">
+      <c r="E4" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="34" t="s">
+      <c r="F4" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="35" t="s">
+      <c r="G4" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="36" t="s">
+      <c r="H4" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="36" t="s">
+      <c r="I4" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="J4" s="36" t="s">
+      <c r="J4" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="K4" s="36" t="s">
+      <c r="K4" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="L4" s="37" t="s">
+      <c r="L4" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="M4" s="37" t="s">
+      <c r="M4" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="N4" s="38" t="s">
+      <c r="N4" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="O4" s="37" t="s">
+      <c r="O4" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="P4" s="38" t="s">
+      <c r="P4" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="Q4" s="39" t="s">
+      <c r="Q4" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="R4" s="39" t="s">
+      <c r="R4" s="20" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:18">
+      <c r="A5" s="2">
+        <v>1</v>
+      </c>
       <c r="B5" s="8"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
     </row>
     <row r="7" spans="1:18">
       <c r="B7" s="10"/>
@@ -1212,6 +1215,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C2:G2"/>
     <mergeCell ref="Q2:Q3"/>
     <mergeCell ref="R2:R3"/>
     <mergeCell ref="J2:K2"/>
@@ -1220,11 +1228,6 @@
     <mergeCell ref="P2:P3"/>
     <mergeCell ref="L2:L3"/>
     <mergeCell ref="M2:M3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C2:G2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/src/main/resources/com/cauh/iso/xdocreport/SOP_Training_Deviation_Log_01.xlsx
+++ b/src/main/resources/com/cauh/iso/xdocreport/SOP_Training_Deviation_Log_01.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SafeSoft\IdeaProjects\SOP\iso-ms\src\main\resources\com\cauh\iso\xdocreport\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01. project\06. SOP LMS\07. 단국대\doc\DKUH_ISO Management System 반영 문서\xdocreport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4993AF4F-7EFD-4056-B5F4-28C374148A8C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B21C55EB-606E-4085-9BD5-102C690DBC67}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="660" yWindow="660" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32595" yWindow="3960" windowWidth="17280" windowHeight="8970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SOP TR Deviation Log" sheetId="1" r:id="rId1"/>
@@ -33,31 +33,7 @@
     <author>SafeSoft</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{88601FAF-479F-4BAC-8007-A2137B7A0A86}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>SafeSoft:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-jx:area(lastCell="R4")</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{2A15DBDF-DCCA-4BAC-A423-F8D486ED4808}">
+    <comment ref="A5" authorId="0" shapeId="0" xr:uid="{2A15DBDF-DCCA-4BAC-A423-F8D486ED4808}">
       <text>
         <r>
           <rPr>
@@ -86,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
   <si>
     <t>Deviation Details</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -105,14 +81,6 @@
   </si>
   <si>
     <t>Ver.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -161,18 +129,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>(Expected) Completion Date</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>SOP Information</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Date of Completion</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>${DTOList.indexOf(dto)+1}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -243,6 +203,14 @@
   <si>
     <t>${dto.completionDate}</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOP Training Deviation Log</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Date of Comletion</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -254,7 +222,7 @@
     <numFmt numFmtId="177" formatCode="[$-409]d/mmm/yyyy;@"/>
     <numFmt numFmtId="178" formatCode="yyyy/mm/dd;@"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -344,8 +312,25 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="times new roma"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -364,8 +349,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="65"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="19">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -374,13 +365,22 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -389,41 +389,42 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.24994659260841701"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.24994659260841701"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -432,22 +433,7 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.24994659260841701"/>
       </right>
       <top/>
       <bottom style="medium">
@@ -456,20 +442,13 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -478,9 +457,13 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="medium">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -490,106 +473,7 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.24994659260841701"/>
       </left>
       <right style="thin">
         <color theme="1"/>
@@ -598,7 +482,7 @@
         <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.24994659260841701"/>
       </bottom>
       <diagonal/>
     </border>
@@ -613,7 +497,37 @@
         <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
       </bottom>
       <diagonal/>
     </border>
@@ -623,7 +537,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -639,15 +553,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -660,88 +565,82 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="13" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="9" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="14" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="9" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="14" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1030,216 +929,256 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R20"/>
+  <dimension ref="A1:R21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScale="80" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScale="25" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="25" workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="20.5" style="3" customWidth="1"/>
-    <col min="3" max="3" width="12" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="7.75" style="1" customWidth="1"/>
-    <col min="6" max="7" width="14.125" style="1" customWidth="1"/>
-    <col min="8" max="9" width="11.875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="12.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5" style="3" customWidth="1"/>
+    <col min="3" max="3" width="14.3984375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.19921875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="7.69921875" style="1" customWidth="1"/>
+    <col min="6" max="7" width="14.09765625" style="1" customWidth="1"/>
+    <col min="8" max="9" width="11.8984375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.3984375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.69921875" style="1" customWidth="1"/>
     <col min="12" max="12" width="17" style="1" customWidth="1"/>
-    <col min="13" max="13" width="23.75" style="1" customWidth="1"/>
-    <col min="14" max="14" width="11.625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="18.375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="11.25" style="1" customWidth="1"/>
+    <col min="13" max="13" width="23.69921875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="11.59765625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="18.3984375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="11.19921875" style="1" customWidth="1"/>
     <col min="17" max="17" width="10.5" style="1" customWidth="1"/>
     <col min="18" max="18" width="12.5" style="1" customWidth="1"/>
-    <col min="19" max="16384" width="8.75" style="1"/>
+    <col min="19" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="17.25" thickBot="1"/>
-    <row r="2" spans="1:18" s="4" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A2" s="33" t="s">
+    <row r="1" spans="1:18" ht="25.8" customHeight="1">
+      <c r="A1" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="19"/>
+    </row>
+    <row r="2" spans="1:18" ht="16.8" customHeight="1" thickBot="1">
+      <c r="A2" s="20"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="21"/>
+    </row>
+    <row r="3" spans="1:18" s="4" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A3" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="I3" s="10"/>
+      <c r="J3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="11"/>
+      <c r="L3" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="N3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="O3" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="P3" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q3" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="R3" s="23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" s="4" customFormat="1" ht="38.25" customHeight="1" thickBot="1">
+      <c r="A4" s="22"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="K4" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="24"/>
+    </row>
+    <row r="5" spans="1:18" ht="84.9" customHeight="1">
+      <c r="A5" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="35"/>
-      <c r="J2" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="K2" s="26"/>
-      <c r="L2" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="M2" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="N2" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="O2" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="P2" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q2" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="R2" s="23" t="s">
+      <c r="D5" s="27" t="s">
         <v>20</v>
       </c>
+      <c r="E5" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="M5" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="N5" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="O5" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="P5" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q5" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="R5" s="34" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="3" spans="1:18" s="4" customFormat="1" ht="38.25" customHeight="1" thickBot="1">
-      <c r="A3" s="34"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="L3" s="32"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="28"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="28"/>
-      <c r="Q3" s="22"/>
-      <c r="R3" s="24"/>
-    </row>
-    <row r="4" spans="1:18" ht="84.95" customHeight="1">
-      <c r="A4" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="J4" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="K4" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="L4" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="M4" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="N4" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="O4" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="P4" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q4" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="R4" s="20" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
-      <c r="A5" s="2">
-        <v>1</v>
-      </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-    </row>
-    <row r="7" spans="1:18">
-      <c r="B7" s="10"/>
+    <row r="6" spans="1:18">
+      <c r="B6" s="5"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
     </row>
     <row r="8" spans="1:18">
-      <c r="B8" s="9"/>
+      <c r="B8" s="7"/>
     </row>
-    <row r="20" spans="11:11">
-      <c r="K20" s="11"/>
+    <row r="9" spans="1:18">
+      <c r="B9" s="6"/>
+    </row>
+    <row r="21" spans="11:11">
+      <c r="K21" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:M3"/>
+  <mergeCells count="15">
+    <mergeCell ref="A2:R2"/>
+    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.40509259259259262" right="0.54036458333333337" top="0.83333333333333337" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="50" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;G&amp;R&amp;"-,굵게"&amp;18
-SOP Training Deviation Log</oddHeader>
-    <oddFooter xml:space="preserve">&amp;L&amp;"-,굵게"&amp;9CAUH-QM002-RF07 v1.0
-SOP Training Deviation Log
-Effective Date: 19-APR-2021&amp;C&amp;"-,굵게"&amp;9&amp;K000000
- Page &amp;P / &amp;N&amp;R&amp;"-,굵은 기울임꼴"&amp;9CONFIDENTIAL </oddFooter>
+    <oddHeader xml:space="preserve">&amp;L&amp;G&amp;R&amp;"Times New Roman,굵은 기울임꼴"&amp;10ISO 14155 Document&amp;"-,굵게"&amp;18
+</oddHeader>
+    <oddFooter>&amp;L&amp;"-,굵게"&amp;9DKUH-102-F07
+Version: 1.0
+Effective Date: DDMMMYYYY&amp;C&amp;"-,굵게"&amp;9&amp;K000000
+CONFIDENTIAL&amp;R&amp;"-,굵은 기울임꼴"&amp;9Page &amp;P / &amp;N</oddFooter>
   </headerFooter>
   <legacyDrawing r:id="rId2"/>
   <legacyDrawingHF r:id="rId3"/>

--- a/src/main/resources/com/cauh/iso/xdocreport/SOP_Training_Deviation_Log_01.xlsx
+++ b/src/main/resources/com/cauh/iso/xdocreport/SOP_Training_Deviation_Log_01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01. project\06. SOP LMS\07. 단국대\doc\DKUH_ISO Management System 반영 문서\xdocreport\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Safesoft 자료\2021\ISO_MS\중앙대학교병원 시스템 적용 RFs\TEMPLATE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B21C55EB-606E-4085-9BD5-102C690DBC67}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E82058AD-3AE2-4321-B539-892EF3DAC7ED}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32595" yWindow="3960" windowWidth="17280" windowHeight="8970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SOP TR Deviation Log" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,31 @@
     <author>SafeSoft</author>
   </authors>
   <commentList>
-    <comment ref="A5" authorId="0" shapeId="0" xr:uid="{2A15DBDF-DCCA-4BAC-A423-F8D486ED4808}">
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{88601FAF-479F-4BAC-8007-A2137B7A0A86}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>SafeSoft:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+jx:area(lastCell="R4")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{2A15DBDF-DCCA-4BAC-A423-F8D486ED4808}">
       <text>
         <r>
           <rPr>
@@ -62,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Deviation Details</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -81,6 +105,14 @@
   </si>
   <si>
     <t>Ver.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -129,10 +161,18 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>(Expected) Completion Date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>SOP Information</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>Date of Completion</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>${DTOList.indexOf(dto)+1}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -203,14 +243,6 @@
   <si>
     <t>${dto.completionDate}</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SOP Training Deviation Log</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Date of Comletion</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -222,7 +254,7 @@
     <numFmt numFmtId="177" formatCode="[$-409]d/mmm/yyyy;@"/>
     <numFmt numFmtId="178" formatCode="yyyy/mm/dd;@"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -312,25 +344,8 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="times new roma"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -349,14 +364,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="65"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="14">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -365,65 +374,213 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
+        <color theme="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </top>
-      <bottom/>
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </left>
-      <right/>
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom style="medium">
         <color indexed="64"/>
@@ -431,49 +588,8 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
         <color theme="1"/>
@@ -482,7 +598,7 @@
         <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -497,37 +613,7 @@
         <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -537,7 +623,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -553,6 +639,15 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -565,82 +660,88 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="13" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="14" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="14" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="9" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="14" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="9" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -929,17 +1030,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R21"/>
+  <dimension ref="A1:R20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScale="25" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="25" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScale="80" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="18.5" style="3" customWidth="1"/>
-    <col min="3" max="3" width="14.3984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5" style="3" customWidth="1"/>
+    <col min="3" max="3" width="12" style="1" customWidth="1"/>
     <col min="4" max="4" width="24.19921875" style="1" customWidth="1"/>
     <col min="5" max="5" width="7.69921875" style="1" customWidth="1"/>
     <col min="6" max="7" width="14.09765625" style="1" customWidth="1"/>
@@ -956,229 +1057,186 @@
     <col min="19" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="25.8" customHeight="1">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:18" ht="18" thickBot="1"/>
+    <row r="2" spans="1:18" s="4" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="14"/>
+      <c r="J2" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="25"/>
+      <c r="L2" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="O2" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="P2" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q2" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="R2" s="22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" s="4" customFormat="1" ht="38.25" customHeight="1" thickBot="1">
+      <c r="A3" s="13"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="30"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="28"/>
+      <c r="P3" s="27"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="23"/>
+    </row>
+    <row r="4" spans="1:18" ht="84.9" customHeight="1">
+      <c r="A4" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="M4" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="N4" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="O4" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="19"/>
+      <c r="P4" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q4" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="R4" s="39" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="2" spans="1:18" ht="16.8" customHeight="1" thickBot="1">
-      <c r="A2" s="20"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="21"/>
+    <row r="5" spans="1:18">
+      <c r="B5" s="8"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
     </row>
-    <row r="3" spans="1:18" s="4" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A3" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="10"/>
-      <c r="J3" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="K3" s="11"/>
-      <c r="L3" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="M3" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="N3" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="O3" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="P3" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q3" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="R3" s="23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" s="4" customFormat="1" ht="38.25" customHeight="1" thickBot="1">
-      <c r="A4" s="22"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="I4" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="J4" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="K4" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="24"/>
-    </row>
-    <row r="5" spans="1:18" ht="84.9" customHeight="1">
-      <c r="A5" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="I5" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="J5" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="K5" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="L5" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="M5" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="N5" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="O5" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="P5" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q5" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="R5" s="34" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
-      <c r="B6" s="5"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
+    <row r="7" spans="1:18">
+      <c r="B7" s="10"/>
     </row>
     <row r="8" spans="1:18">
-      <c r="B8" s="7"/>
+      <c r="B8" s="9"/>
     </row>
-    <row r="9" spans="1:18">
-      <c r="B9" s="6"/>
-    </row>
-    <row r="21" spans="11:11">
-      <c r="K21" s="8"/>
+    <row r="20" spans="11:11">
+      <c r="K20" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="A2:R2"/>
-    <mergeCell ref="A1:R1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
+  <mergeCells count="13">
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C2:G2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.40509259259259262" right="0.54036458333333337" top="0.83333333333333337" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="50" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter>
-    <oddHeader xml:space="preserve">&amp;L&amp;G&amp;R&amp;"Times New Roman,굵은 기울임꼴"&amp;10ISO 14155 Document&amp;"-,굵게"&amp;18
-</oddHeader>
-    <oddFooter>&amp;L&amp;"-,굵게"&amp;9DKUH-102-F07
-Version: 1.0
-Effective Date: DDMMMYYYY&amp;C&amp;"-,굵게"&amp;9&amp;K000000
-CONFIDENTIAL&amp;R&amp;"-,굵은 기울임꼴"&amp;9Page &amp;P / &amp;N</oddFooter>
+    <oddHeader>&amp;L&amp;G&amp;R&amp;"-,굵게"&amp;18
+SOP Training Deviation Log</oddHeader>
+    <oddFooter xml:space="preserve">&amp;L&amp;"-,굵게"&amp;9CAUH-QM002-RF07 v1.0
+SOP Training Deviation Log
+Effective Date: 19-APR-2021&amp;C&amp;"-,굵게"&amp;9&amp;K000000
+ Page &amp;P / &amp;N&amp;R&amp;"-,굵은 기울임꼴"&amp;9CONFIDENTIAL </oddFooter>
   </headerFooter>
   <legacyDrawing r:id="rId2"/>
   <legacyDrawingHF r:id="rId3"/>
